--- a/Spotify Playlist/Documents/Top50_18-01-2021.xlsx
+++ b/Spotify Playlist/Documents/Top50_18-01-2021.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anyarose.Williamson\Documents\UiPath\Spotify Playlist\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EBE08DA-843A-4F7E-9942-AB431CCC1FEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6975E407-B64A-4FEB-A6A2-0D9C79A3CEED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="1760" windowWidth="14400" windowHeight="7460" xr2:uid="{31170380-837F-4B84-854B-D9DCA854E1E4}"/>
+    <workbookView xWindow="2000" yWindow="1760" windowWidth="14400" windowHeight="7460" xr2:uid="{AB6692B4-7AC1-4FBF-ADCD-449BB24F6182}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Global Top 50" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -379,7 +380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574F07B9-9F50-477D-9313-4D78EFE40A2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8609A6E-FC44-4322-902B-5E2B4B6066B3}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -388,4 +389,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9569F32-F773-4782-9F17-4538C925846D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>